--- a/excel/finished/wg8#高炉/8高炉小时参数表.xlsx
+++ b/excel/finished/wg8#高炉/8高炉小时参数表.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\wg-steel\excel\finished\wg8#高炉\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFFB63B-BC3F-4F47-AA1E-461E077D5BEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A0C2DF-A53D-43B6-ABCE-5B3F01A54F42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="小时炉况输入表" sheetId="1" r:id="rId1"/>
+    <sheet name="小时参数表" sheetId="1" r:id="rId1"/>
     <sheet name="_tag_day_hour1" sheetId="2" r:id="rId2"/>
     <sheet name="_metadata" sheetId="3" r:id="rId3"/>
     <sheet name="_dictionary" sheetId="4" r:id="rId4"/>
@@ -33,9 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
-    <t>8高炉小时炉况输入表</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">   </t>
     </r>
@@ -180,6 +177,10 @@
   </si>
   <si>
     <t>version</t>
+  </si>
+  <si>
+    <t>8高炉小时参数表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -501,6 +502,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -516,8 +519,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -766,79 +767,79 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="27"/>
+    </row>
+    <row r="3" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="25"/>
-    </row>
-    <row r="3" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="8" t="s">
+    </row>
+    <row r="4" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="30"/>
+      <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="28"/>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -873,7 +874,7 @@
         <f>IF(_tag_day_hour1!G2="","",_tag_day_hour1!G2)</f>
         <v/>
       </c>
-      <c r="J5" s="29" t="str">
+      <c r="J5" s="24" t="str">
         <f>IF(_tag_day_hour1!H2="","",_tag_day_hour1!H2)</f>
         <v/>
       </c>
@@ -914,7 +915,7 @@
         <f>IF(_tag_day_hour1!G3="","",_tag_day_hour1!G3)</f>
         <v/>
       </c>
-      <c r="J6" s="29" t="str">
+      <c r="J6" s="24" t="str">
         <f>IF(_tag_day_hour1!H3="","",_tag_day_hour1!H3)</f>
         <v/>
       </c>
@@ -955,7 +956,7 @@
         <f>IF(_tag_day_hour1!G4="","",_tag_day_hour1!G4)</f>
         <v/>
       </c>
-      <c r="J7" s="29" t="str">
+      <c r="J7" s="24" t="str">
         <f>IF(_tag_day_hour1!H4="","",_tag_day_hour1!H4)</f>
         <v/>
       </c>
@@ -996,7 +997,7 @@
         <f>IF(_tag_day_hour1!G5="","",_tag_day_hour1!G5)</f>
         <v/>
       </c>
-      <c r="J8" s="29" t="str">
+      <c r="J8" s="24" t="str">
         <f>IF(_tag_day_hour1!H5="","",_tag_day_hour1!H5)</f>
         <v/>
       </c>
@@ -1037,7 +1038,7 @@
         <f>IF(_tag_day_hour1!G6="","",_tag_day_hour1!G6)</f>
         <v/>
       </c>
-      <c r="J9" s="29" t="str">
+      <c r="J9" s="24" t="str">
         <f>IF(_tag_day_hour1!H6="","",_tag_day_hour1!H6)</f>
         <v/>
       </c>
@@ -1078,7 +1079,7 @@
         <f>IF(_tag_day_hour1!G7="","",_tag_day_hour1!G7)</f>
         <v/>
       </c>
-      <c r="J10" s="29" t="str">
+      <c r="J10" s="24" t="str">
         <f>IF(_tag_day_hour1!H7="","",_tag_day_hour1!H7)</f>
         <v/>
       </c>
@@ -1119,7 +1120,7 @@
         <f>IF(_tag_day_hour1!G8="","",_tag_day_hour1!G8)</f>
         <v/>
       </c>
-      <c r="J11" s="29" t="str">
+      <c r="J11" s="24" t="str">
         <f>IF(_tag_day_hour1!H8="","",_tag_day_hour1!H8)</f>
         <v/>
       </c>
@@ -1160,7 +1161,7 @@
         <f>IF(_tag_day_hour1!G9="","",_tag_day_hour1!G9)</f>
         <v/>
       </c>
-      <c r="J12" s="29" t="str">
+      <c r="J12" s="24" t="str">
         <f>IF(_tag_day_hour1!H9="","",_tag_day_hour1!H9)</f>
         <v/>
       </c>
@@ -1201,7 +1202,7 @@
         <f>IF(_tag_day_hour1!G10="","",_tag_day_hour1!G10)</f>
         <v/>
       </c>
-      <c r="J13" s="29" t="str">
+      <c r="J13" s="24" t="str">
         <f>IF(_tag_day_hour1!H10="","",_tag_day_hour1!H10)</f>
         <v/>
       </c>
@@ -1242,7 +1243,7 @@
         <f>IF(_tag_day_hour1!G11="","",_tag_day_hour1!G11)</f>
         <v/>
       </c>
-      <c r="J14" s="29" t="str">
+      <c r="J14" s="24" t="str">
         <f>IF(_tag_day_hour1!H11="","",_tag_day_hour1!H11)</f>
         <v/>
       </c>
@@ -1283,7 +1284,7 @@
         <f>IF(_tag_day_hour1!G12="","",_tag_day_hour1!G12)</f>
         <v/>
       </c>
-      <c r="J15" s="29" t="str">
+      <c r="J15" s="24" t="str">
         <f>IF(_tag_day_hour1!H12="","",_tag_day_hour1!H12)</f>
         <v/>
       </c>
@@ -1324,7 +1325,7 @@
         <f>IF(_tag_day_hour1!G13="","",_tag_day_hour1!G13)</f>
         <v/>
       </c>
-      <c r="J16" s="29" t="str">
+      <c r="J16" s="24" t="str">
         <f>IF(_tag_day_hour1!H13="","",_tag_day_hour1!H13)</f>
         <v/>
       </c>
@@ -1365,7 +1366,7 @@
         <f>IF(_tag_day_hour1!G14="","",_tag_day_hour1!G14)</f>
         <v/>
       </c>
-      <c r="J17" s="29" t="str">
+      <c r="J17" s="24" t="str">
         <f>IF(_tag_day_hour1!H14="","",_tag_day_hour1!H14)</f>
         <v/>
       </c>
@@ -1406,7 +1407,7 @@
         <f>IF(_tag_day_hour1!G15="","",_tag_day_hour1!G15)</f>
         <v/>
       </c>
-      <c r="J18" s="29" t="str">
+      <c r="J18" s="24" t="str">
         <f>IF(_tag_day_hour1!H15="","",_tag_day_hour1!H15)</f>
         <v/>
       </c>
@@ -1447,7 +1448,7 @@
         <f>IF(_tag_day_hour1!G16="","",_tag_day_hour1!G16)</f>
         <v/>
       </c>
-      <c r="J19" s="29" t="str">
+      <c r="J19" s="24" t="str">
         <f>IF(_tag_day_hour1!H16="","",_tag_day_hour1!H16)</f>
         <v/>
       </c>
@@ -1488,7 +1489,7 @@
         <f>IF(_tag_day_hour1!G17="","",_tag_day_hour1!G17)</f>
         <v/>
       </c>
-      <c r="J20" s="29" t="str">
+      <c r="J20" s="24" t="str">
         <f>IF(_tag_day_hour1!H17="","",_tag_day_hour1!H17)</f>
         <v/>
       </c>
@@ -1529,7 +1530,7 @@
         <f>IF(_tag_day_hour1!G18="","",_tag_day_hour1!G18)</f>
         <v/>
       </c>
-      <c r="J21" s="29" t="str">
+      <c r="J21" s="24" t="str">
         <f>IF(_tag_day_hour1!H18="","",_tag_day_hour1!H18)</f>
         <v/>
       </c>
@@ -1567,7 +1568,7 @@
         <f>IF(_tag_day_hour1!G19="","",_tag_day_hour1!G19)</f>
         <v/>
       </c>
-      <c r="J22" s="29" t="str">
+      <c r="J22" s="24" t="str">
         <f>IF(_tag_day_hour1!H19="","",_tag_day_hour1!H19)</f>
         <v/>
       </c>
@@ -1608,7 +1609,7 @@
         <f>IF(_tag_day_hour1!G20="","",_tag_day_hour1!G20)</f>
         <v/>
       </c>
-      <c r="J23" s="29" t="str">
+      <c r="J23" s="24" t="str">
         <f>IF(_tag_day_hour1!H20="","",_tag_day_hour1!H20)</f>
         <v/>
       </c>
@@ -1649,7 +1650,7 @@
         <f>IF(_tag_day_hour1!G21="","",_tag_day_hour1!G21)</f>
         <v/>
       </c>
-      <c r="J24" s="29" t="str">
+      <c r="J24" s="24" t="str">
         <f>IF(_tag_day_hour1!H21="","",_tag_day_hour1!H21)</f>
         <v/>
       </c>
@@ -1690,7 +1691,7 @@
         <f>IF(_tag_day_hour1!G22="","",_tag_day_hour1!G22)</f>
         <v/>
       </c>
-      <c r="J25" s="29" t="str">
+      <c r="J25" s="24" t="str">
         <f>IF(_tag_day_hour1!H22="","",_tag_day_hour1!H22)</f>
         <v/>
       </c>
@@ -1731,7 +1732,7 @@
         <f>IF(_tag_day_hour1!G23="","",_tag_day_hour1!G23)</f>
         <v/>
       </c>
-      <c r="J26" s="29" t="str">
+      <c r="J26" s="24" t="str">
         <f>IF(_tag_day_hour1!H23="","",_tag_day_hour1!H23)</f>
         <v/>
       </c>
@@ -1772,7 +1773,7 @@
         <f>IF(_tag_day_hour1!G24="","",_tag_day_hour1!G24)</f>
         <v/>
       </c>
-      <c r="J27" s="29" t="str">
+      <c r="J27" s="24" t="str">
         <f>IF(_tag_day_hour1!H24="","",_tag_day_hour1!H24)</f>
         <v/>
       </c>
@@ -1813,7 +1814,7 @@
         <f>IF(_tag_day_hour1!G25="","",_tag_day_hour1!G25)</f>
         <v/>
       </c>
-      <c r="J28" s="29" t="str">
+      <c r="J28" s="24" t="str">
         <f>IF(_tag_day_hour1!H25="","",_tag_day_hour1!H25)</f>
         <v/>
       </c>
@@ -1824,7 +1825,7 @@
     </row>
     <row r="29" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="20" t="str">
         <f t="shared" ref="C29:K29" si="0">IFERROR(AVERAGE(C5:C28),"")</f>
@@ -1854,7 +1855,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J29" s="30" t="str">
+      <c r="J29" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1887,31 +1888,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>27</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1949,7 +1950,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1">
         <v>8</v>

--- a/excel/finished/wg8#高炉/8高炉小时参数表.xlsx
+++ b/excel/finished/wg8#高炉/8高炉小时参数表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\wg-steel\excel\finished\wg8#高炉\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A0C2DF-A53D-43B6-ABCE-5B3F01A54F42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B318CFD3-6372-46F4-87CC-9F58092071F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <r>
       <t xml:space="preserve">   </t>
@@ -119,22 +119,13 @@
     <t>批</t>
   </si>
   <si>
-    <t>Nm3/min</t>
-  </si>
-  <si>
     <t>℃</t>
   </si>
   <si>
-    <t>m3/h</t>
-  </si>
-  <si>
     <t>t/h</t>
   </si>
   <si>
     <t>Mpa</t>
-  </si>
-  <si>
-    <t>g/m3</t>
   </si>
   <si>
     <r>
@@ -158,9 +149,6 @@
     <t>ZP_BF8_L1R_BD_ColdBlastFlow</t>
   </si>
   <si>
-    <t>ZP_BF8_L1R_BD_HotBlastTemp1</t>
-  </si>
-  <si>
     <t>ZP_BF8_L1R_BD_OxygenFlow</t>
   </si>
   <si>
@@ -181,6 +169,83 @@
   <si>
     <t>8高炉小时参数表</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/h</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/min</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP_BF8_L1R_BD_HotBlastTemp1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP_BF8_L2C_BD_HotBlastTemp2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算右侧两个数的最大值</t>
   </si>
 </sst>
 </file>
@@ -193,7 +258,7 @@
     <numFmt numFmtId="178" formatCode="0.000"/>
     <numFmt numFmtId="179" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +313,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -451,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -518,6 +597,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -746,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K29"/>
+  <dimension ref="B2:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,7 +850,7 @@
   <sheetData>
     <row r="2" spans="2:11" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="26" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -821,28 +903,28 @@
         <v>11</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>16</v>
-      </c>
       <c r="J4" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="15">
         <v>0</v>
       </c>
@@ -863,23 +945,23 @@
         <v/>
       </c>
       <c r="G5" s="17" t="str">
-        <f>IF(_tag_day_hour1!E2="","",_tag_day_hour1!E2)</f>
+        <f>IF(_tag_day_hour1!G2="","",_tag_day_hour1!G2)</f>
         <v/>
       </c>
       <c r="H5" s="16" t="str">
-        <f>IF(_tag_day_hour1!F2="","",_tag_day_hour1!F2)</f>
-        <v/>
-      </c>
-      <c r="I5" s="17" t="str">
-        <f>IF(_tag_day_hour1!G2="","",_tag_day_hour1!G2)</f>
+        <f>IF(_tag_day_hour1!H2="","",_tag_day_hour1!H2)</f>
+        <v/>
+      </c>
+      <c r="I5" s="24" t="str">
+        <f>IF(_tag_day_hour1!I2="","",_tag_day_hour1!I2/1000)</f>
         <v/>
       </c>
       <c r="J5" s="24" t="str">
-        <f>IF(_tag_day_hour1!H2="","",_tag_day_hour1!H2)</f>
+        <f>IF(_tag_day_hour1!J2="","",_tag_day_hour1!J2)</f>
         <v/>
       </c>
       <c r="K5" s="18" t="str">
-        <f>IF(_tag_day_hour1!I2="","",_tag_day_hour1!I2)</f>
+        <f>IF(_tag_day_hour1!K2="","",_tag_day_hour1!K2)</f>
         <v/>
       </c>
     </row>
@@ -904,23 +986,23 @@
         <v/>
       </c>
       <c r="G6" s="17" t="str">
-        <f>IF(_tag_day_hour1!E3="","",_tag_day_hour1!E3)</f>
+        <f>IF(_tag_day_hour1!G3="","",_tag_day_hour1!G3)</f>
         <v/>
       </c>
       <c r="H6" s="16" t="str">
-        <f>IF(_tag_day_hour1!F3="","",_tag_day_hour1!F3)</f>
-        <v/>
-      </c>
-      <c r="I6" s="17" t="str">
-        <f>IF(_tag_day_hour1!G3="","",_tag_day_hour1!G3)</f>
+        <f>IF(_tag_day_hour1!H3="","",_tag_day_hour1!H3)</f>
+        <v/>
+      </c>
+      <c r="I6" s="24" t="str">
+        <f>IF(_tag_day_hour1!I3="","",_tag_day_hour1!I3/1000)</f>
         <v/>
       </c>
       <c r="J6" s="24" t="str">
-        <f>IF(_tag_day_hour1!H3="","",_tag_day_hour1!H3)</f>
+        <f>IF(_tag_day_hour1!J3="","",_tag_day_hour1!J3)</f>
         <v/>
       </c>
       <c r="K6" s="18" t="str">
-        <f>IF(_tag_day_hour1!I3="","",_tag_day_hour1!I3)</f>
+        <f>IF(_tag_day_hour1!K3="","",_tag_day_hour1!K3)</f>
         <v/>
       </c>
     </row>
@@ -945,23 +1027,23 @@
         <v/>
       </c>
       <c r="G7" s="17" t="str">
-        <f>IF(_tag_day_hour1!E4="","",_tag_day_hour1!E4)</f>
+        <f>IF(_tag_day_hour1!G4="","",_tag_day_hour1!G4)</f>
         <v/>
       </c>
       <c r="H7" s="16" t="str">
-        <f>IF(_tag_day_hour1!F4="","",_tag_day_hour1!F4)</f>
-        <v/>
-      </c>
-      <c r="I7" s="17" t="str">
-        <f>IF(_tag_day_hour1!G4="","",_tag_day_hour1!G4)</f>
+        <f>IF(_tag_day_hour1!H4="","",_tag_day_hour1!H4)</f>
+        <v/>
+      </c>
+      <c r="I7" s="24" t="str">
+        <f>IF(_tag_day_hour1!I4="","",_tag_day_hour1!I4/1000)</f>
         <v/>
       </c>
       <c r="J7" s="24" t="str">
-        <f>IF(_tag_day_hour1!H4="","",_tag_day_hour1!H4)</f>
+        <f>IF(_tag_day_hour1!J4="","",_tag_day_hour1!J4)</f>
         <v/>
       </c>
       <c r="K7" s="18" t="str">
-        <f>IF(_tag_day_hour1!I4="","",_tag_day_hour1!I4)</f>
+        <f>IF(_tag_day_hour1!K4="","",_tag_day_hour1!K4)</f>
         <v/>
       </c>
     </row>
@@ -986,23 +1068,23 @@
         <v/>
       </c>
       <c r="G8" s="17" t="str">
-        <f>IF(_tag_day_hour1!E5="","",_tag_day_hour1!E5)</f>
+        <f>IF(_tag_day_hour1!G5="","",_tag_day_hour1!G5)</f>
         <v/>
       </c>
       <c r="H8" s="16" t="str">
-        <f>IF(_tag_day_hour1!F5="","",_tag_day_hour1!F5)</f>
-        <v/>
-      </c>
-      <c r="I8" s="17" t="str">
-        <f>IF(_tag_day_hour1!G5="","",_tag_day_hour1!G5)</f>
+        <f>IF(_tag_day_hour1!H5="","",_tag_day_hour1!H5)</f>
+        <v/>
+      </c>
+      <c r="I8" s="24" t="str">
+        <f>IF(_tag_day_hour1!I5="","",_tag_day_hour1!I5/1000)</f>
         <v/>
       </c>
       <c r="J8" s="24" t="str">
-        <f>IF(_tag_day_hour1!H5="","",_tag_day_hour1!H5)</f>
+        <f>IF(_tag_day_hour1!J5="","",_tag_day_hour1!J5)</f>
         <v/>
       </c>
       <c r="K8" s="18" t="str">
-        <f>IF(_tag_day_hour1!I5="","",_tag_day_hour1!I5)</f>
+        <f>IF(_tag_day_hour1!K5="","",_tag_day_hour1!K5)</f>
         <v/>
       </c>
     </row>
@@ -1027,23 +1109,23 @@
         <v/>
       </c>
       <c r="G9" s="17" t="str">
-        <f>IF(_tag_day_hour1!E6="","",_tag_day_hour1!E6)</f>
+        <f>IF(_tag_day_hour1!G6="","",_tag_day_hour1!G6)</f>
         <v/>
       </c>
       <c r="H9" s="16" t="str">
-        <f>IF(_tag_day_hour1!F6="","",_tag_day_hour1!F6)</f>
-        <v/>
-      </c>
-      <c r="I9" s="17" t="str">
-        <f>IF(_tag_day_hour1!G6="","",_tag_day_hour1!G6)</f>
+        <f>IF(_tag_day_hour1!H6="","",_tag_day_hour1!H6)</f>
+        <v/>
+      </c>
+      <c r="I9" s="24" t="str">
+        <f>IF(_tag_day_hour1!I6="","",_tag_day_hour1!I6/1000)</f>
         <v/>
       </c>
       <c r="J9" s="24" t="str">
-        <f>IF(_tag_day_hour1!H6="","",_tag_day_hour1!H6)</f>
+        <f>IF(_tag_day_hour1!J6="","",_tag_day_hour1!J6)</f>
         <v/>
       </c>
       <c r="K9" s="18" t="str">
-        <f>IF(_tag_day_hour1!I6="","",_tag_day_hour1!I6)</f>
+        <f>IF(_tag_day_hour1!K6="","",_tag_day_hour1!K6)</f>
         <v/>
       </c>
     </row>
@@ -1068,23 +1150,23 @@
         <v/>
       </c>
       <c r="G10" s="17" t="str">
-        <f>IF(_tag_day_hour1!E7="","",_tag_day_hour1!E7)</f>
+        <f>IF(_tag_day_hour1!G7="","",_tag_day_hour1!G7)</f>
         <v/>
       </c>
       <c r="H10" s="16" t="str">
-        <f>IF(_tag_day_hour1!F7="","",_tag_day_hour1!F7)</f>
-        <v/>
-      </c>
-      <c r="I10" s="17" t="str">
-        <f>IF(_tag_day_hour1!G7="","",_tag_day_hour1!G7)</f>
+        <f>IF(_tag_day_hour1!H7="","",_tag_day_hour1!H7)</f>
+        <v/>
+      </c>
+      <c r="I10" s="24" t="str">
+        <f>IF(_tag_day_hour1!I7="","",_tag_day_hour1!I7/1000)</f>
         <v/>
       </c>
       <c r="J10" s="24" t="str">
-        <f>IF(_tag_day_hour1!H7="","",_tag_day_hour1!H7)</f>
+        <f>IF(_tag_day_hour1!J7="","",_tag_day_hour1!J7)</f>
         <v/>
       </c>
       <c r="K10" s="18" t="str">
-        <f>IF(_tag_day_hour1!I7="","",_tag_day_hour1!I7)</f>
+        <f>IF(_tag_day_hour1!K7="","",_tag_day_hour1!K7)</f>
         <v/>
       </c>
     </row>
@@ -1109,23 +1191,23 @@
         <v/>
       </c>
       <c r="G11" s="17" t="str">
-        <f>IF(_tag_day_hour1!E8="","",_tag_day_hour1!E8)</f>
+        <f>IF(_tag_day_hour1!G8="","",_tag_day_hour1!G8)</f>
         <v/>
       </c>
       <c r="H11" s="16" t="str">
-        <f>IF(_tag_day_hour1!F8="","",_tag_day_hour1!F8)</f>
-        <v/>
-      </c>
-      <c r="I11" s="17" t="str">
-        <f>IF(_tag_day_hour1!G8="","",_tag_day_hour1!G8)</f>
+        <f>IF(_tag_day_hour1!H8="","",_tag_day_hour1!H8)</f>
+        <v/>
+      </c>
+      <c r="I11" s="24" t="str">
+        <f>IF(_tag_day_hour1!I8="","",_tag_day_hour1!I8/1000)</f>
         <v/>
       </c>
       <c r="J11" s="24" t="str">
-        <f>IF(_tag_day_hour1!H8="","",_tag_day_hour1!H8)</f>
+        <f>IF(_tag_day_hour1!J8="","",_tag_day_hour1!J8)</f>
         <v/>
       </c>
       <c r="K11" s="18" t="str">
-        <f>IF(_tag_day_hour1!I8="","",_tag_day_hour1!I8)</f>
+        <f>IF(_tag_day_hour1!K8="","",_tag_day_hour1!K8)</f>
         <v/>
       </c>
     </row>
@@ -1150,23 +1232,23 @@
         <v/>
       </c>
       <c r="G12" s="17" t="str">
-        <f>IF(_tag_day_hour1!E9="","",_tag_day_hour1!E9)</f>
+        <f>IF(_tag_day_hour1!G9="","",_tag_day_hour1!G9)</f>
         <v/>
       </c>
       <c r="H12" s="16" t="str">
-        <f>IF(_tag_day_hour1!F9="","",_tag_day_hour1!F9)</f>
-        <v/>
-      </c>
-      <c r="I12" s="17" t="str">
-        <f>IF(_tag_day_hour1!G9="","",_tag_day_hour1!G9)</f>
+        <f>IF(_tag_day_hour1!H9="","",_tag_day_hour1!H9)</f>
+        <v/>
+      </c>
+      <c r="I12" s="24" t="str">
+        <f>IF(_tag_day_hour1!I9="","",_tag_day_hour1!I9/1000)</f>
         <v/>
       </c>
       <c r="J12" s="24" t="str">
-        <f>IF(_tag_day_hour1!H9="","",_tag_day_hour1!H9)</f>
+        <f>IF(_tag_day_hour1!J9="","",_tag_day_hour1!J9)</f>
         <v/>
       </c>
       <c r="K12" s="18" t="str">
-        <f>IF(_tag_day_hour1!I9="","",_tag_day_hour1!I9)</f>
+        <f>IF(_tag_day_hour1!K9="","",_tag_day_hour1!K9)</f>
         <v/>
       </c>
     </row>
@@ -1191,23 +1273,23 @@
         <v/>
       </c>
       <c r="G13" s="17" t="str">
-        <f>IF(_tag_day_hour1!E10="","",_tag_day_hour1!E10)</f>
+        <f>IF(_tag_day_hour1!G10="","",_tag_day_hour1!G10)</f>
         <v/>
       </c>
       <c r="H13" s="16" t="str">
-        <f>IF(_tag_day_hour1!F10="","",_tag_day_hour1!F10)</f>
-        <v/>
-      </c>
-      <c r="I13" s="17" t="str">
-        <f>IF(_tag_day_hour1!G10="","",_tag_day_hour1!G10)</f>
+        <f>IF(_tag_day_hour1!H10="","",_tag_day_hour1!H10)</f>
+        <v/>
+      </c>
+      <c r="I13" s="24" t="str">
+        <f>IF(_tag_day_hour1!I10="","",_tag_day_hour1!I10/1000)</f>
         <v/>
       </c>
       <c r="J13" s="24" t="str">
-        <f>IF(_tag_day_hour1!H10="","",_tag_day_hour1!H10)</f>
+        <f>IF(_tag_day_hour1!J10="","",_tag_day_hour1!J10)</f>
         <v/>
       </c>
       <c r="K13" s="18" t="str">
-        <f>IF(_tag_day_hour1!I10="","",_tag_day_hour1!I10)</f>
+        <f>IF(_tag_day_hour1!K10="","",_tag_day_hour1!K10)</f>
         <v/>
       </c>
     </row>
@@ -1232,23 +1314,23 @@
         <v/>
       </c>
       <c r="G14" s="17" t="str">
-        <f>IF(_tag_day_hour1!E11="","",_tag_day_hour1!E11)</f>
+        <f>IF(_tag_day_hour1!G11="","",_tag_day_hour1!G11)</f>
         <v/>
       </c>
       <c r="H14" s="16" t="str">
-        <f>IF(_tag_day_hour1!F11="","",_tag_day_hour1!F11)</f>
-        <v/>
-      </c>
-      <c r="I14" s="17" t="str">
-        <f>IF(_tag_day_hour1!G11="","",_tag_day_hour1!G11)</f>
+        <f>IF(_tag_day_hour1!H11="","",_tag_day_hour1!H11)</f>
+        <v/>
+      </c>
+      <c r="I14" s="24" t="str">
+        <f>IF(_tag_day_hour1!I11="","",_tag_day_hour1!I11/1000)</f>
         <v/>
       </c>
       <c r="J14" s="24" t="str">
-        <f>IF(_tag_day_hour1!H11="","",_tag_day_hour1!H11)</f>
+        <f>IF(_tag_day_hour1!J11="","",_tag_day_hour1!J11)</f>
         <v/>
       </c>
       <c r="K14" s="18" t="str">
-        <f>IF(_tag_day_hour1!I11="","",_tag_day_hour1!I11)</f>
+        <f>IF(_tag_day_hour1!K11="","",_tag_day_hour1!K11)</f>
         <v/>
       </c>
     </row>
@@ -1273,23 +1355,23 @@
         <v/>
       </c>
       <c r="G15" s="17" t="str">
-        <f>IF(_tag_day_hour1!E12="","",_tag_day_hour1!E12)</f>
+        <f>IF(_tag_day_hour1!G12="","",_tag_day_hour1!G12)</f>
         <v/>
       </c>
       <c r="H15" s="16" t="str">
-        <f>IF(_tag_day_hour1!F12="","",_tag_day_hour1!F12)</f>
-        <v/>
-      </c>
-      <c r="I15" s="17" t="str">
-        <f>IF(_tag_day_hour1!G12="","",_tag_day_hour1!G12)</f>
+        <f>IF(_tag_day_hour1!H12="","",_tag_day_hour1!H12)</f>
+        <v/>
+      </c>
+      <c r="I15" s="24" t="str">
+        <f>IF(_tag_day_hour1!I12="","",_tag_day_hour1!I12/1000)</f>
         <v/>
       </c>
       <c r="J15" s="24" t="str">
-        <f>IF(_tag_day_hour1!H12="","",_tag_day_hour1!H12)</f>
+        <f>IF(_tag_day_hour1!J12="","",_tag_day_hour1!J12)</f>
         <v/>
       </c>
       <c r="K15" s="18" t="str">
-        <f>IF(_tag_day_hour1!I12="","",_tag_day_hour1!I12)</f>
+        <f>IF(_tag_day_hour1!K12="","",_tag_day_hour1!K12)</f>
         <v/>
       </c>
     </row>
@@ -1314,23 +1396,23 @@
         <v/>
       </c>
       <c r="G16" s="17" t="str">
-        <f>IF(_tag_day_hour1!E13="","",_tag_day_hour1!E13)</f>
+        <f>IF(_tag_day_hour1!G13="","",_tag_day_hour1!G13)</f>
         <v/>
       </c>
       <c r="H16" s="16" t="str">
-        <f>IF(_tag_day_hour1!F13="","",_tag_day_hour1!F13)</f>
-        <v/>
-      </c>
-      <c r="I16" s="17" t="str">
-        <f>IF(_tag_day_hour1!G13="","",_tag_day_hour1!G13)</f>
+        <f>IF(_tag_day_hour1!H13="","",_tag_day_hour1!H13)</f>
+        <v/>
+      </c>
+      <c r="I16" s="24" t="str">
+        <f>IF(_tag_day_hour1!I13="","",_tag_day_hour1!I13/1000)</f>
         <v/>
       </c>
       <c r="J16" s="24" t="str">
-        <f>IF(_tag_day_hour1!H13="","",_tag_day_hour1!H13)</f>
+        <f>IF(_tag_day_hour1!J13="","",_tag_day_hour1!J13)</f>
         <v/>
       </c>
       <c r="K16" s="18" t="str">
-        <f>IF(_tag_day_hour1!I13="","",_tag_day_hour1!I13)</f>
+        <f>IF(_tag_day_hour1!K13="","",_tag_day_hour1!K13)</f>
         <v/>
       </c>
     </row>
@@ -1355,23 +1437,23 @@
         <v/>
       </c>
       <c r="G17" s="17" t="str">
-        <f>IF(_tag_day_hour1!E14="","",_tag_day_hour1!E14)</f>
+        <f>IF(_tag_day_hour1!G14="","",_tag_day_hour1!G14)</f>
         <v/>
       </c>
       <c r="H17" s="16" t="str">
-        <f>IF(_tag_day_hour1!F14="","",_tag_day_hour1!F14)</f>
-        <v/>
-      </c>
-      <c r="I17" s="17" t="str">
-        <f>IF(_tag_day_hour1!G14="","",_tag_day_hour1!G14)</f>
+        <f>IF(_tag_day_hour1!H14="","",_tag_day_hour1!H14)</f>
+        <v/>
+      </c>
+      <c r="I17" s="24" t="str">
+        <f>IF(_tag_day_hour1!I14="","",_tag_day_hour1!I14/1000)</f>
         <v/>
       </c>
       <c r="J17" s="24" t="str">
-        <f>IF(_tag_day_hour1!H14="","",_tag_day_hour1!H14)</f>
+        <f>IF(_tag_day_hour1!J14="","",_tag_day_hour1!J14)</f>
         <v/>
       </c>
       <c r="K17" s="18" t="str">
-        <f>IF(_tag_day_hour1!I14="","",_tag_day_hour1!I14)</f>
+        <f>IF(_tag_day_hour1!K14="","",_tag_day_hour1!K14)</f>
         <v/>
       </c>
     </row>
@@ -1396,23 +1478,23 @@
         <v/>
       </c>
       <c r="G18" s="17" t="str">
-        <f>IF(_tag_day_hour1!E15="","",_tag_day_hour1!E15)</f>
+        <f>IF(_tag_day_hour1!G15="","",_tag_day_hour1!G15)</f>
         <v/>
       </c>
       <c r="H18" s="16" t="str">
-        <f>IF(_tag_day_hour1!F15="","",_tag_day_hour1!F15)</f>
-        <v/>
-      </c>
-      <c r="I18" s="17" t="str">
-        <f>IF(_tag_day_hour1!G15="","",_tag_day_hour1!G15)</f>
+        <f>IF(_tag_day_hour1!H15="","",_tag_day_hour1!H15)</f>
+        <v/>
+      </c>
+      <c r="I18" s="24" t="str">
+        <f>IF(_tag_day_hour1!I15="","",_tag_day_hour1!I15/1000)</f>
         <v/>
       </c>
       <c r="J18" s="24" t="str">
-        <f>IF(_tag_day_hour1!H15="","",_tag_day_hour1!H15)</f>
+        <f>IF(_tag_day_hour1!J15="","",_tag_day_hour1!J15)</f>
         <v/>
       </c>
       <c r="K18" s="18" t="str">
-        <f>IF(_tag_day_hour1!I15="","",_tag_day_hour1!I15)</f>
+        <f>IF(_tag_day_hour1!K15="","",_tag_day_hour1!K15)</f>
         <v/>
       </c>
     </row>
@@ -1437,23 +1519,23 @@
         <v/>
       </c>
       <c r="G19" s="17" t="str">
-        <f>IF(_tag_day_hour1!E16="","",_tag_day_hour1!E16)</f>
+        <f>IF(_tag_day_hour1!G16="","",_tag_day_hour1!G16)</f>
         <v/>
       </c>
       <c r="H19" s="16" t="str">
-        <f>IF(_tag_day_hour1!F16="","",_tag_day_hour1!F16)</f>
-        <v/>
-      </c>
-      <c r="I19" s="17" t="str">
-        <f>IF(_tag_day_hour1!G16="","",_tag_day_hour1!G16)</f>
+        <f>IF(_tag_day_hour1!H16="","",_tag_day_hour1!H16)</f>
+        <v/>
+      </c>
+      <c r="I19" s="24" t="str">
+        <f>IF(_tag_day_hour1!I16="","",_tag_day_hour1!I16/1000)</f>
         <v/>
       </c>
       <c r="J19" s="24" t="str">
-        <f>IF(_tag_day_hour1!H16="","",_tag_day_hour1!H16)</f>
+        <f>IF(_tag_day_hour1!J16="","",_tag_day_hour1!J16)</f>
         <v/>
       </c>
       <c r="K19" s="18" t="str">
-        <f>IF(_tag_day_hour1!I16="","",_tag_day_hour1!I16)</f>
+        <f>IF(_tag_day_hour1!K16="","",_tag_day_hour1!K16)</f>
         <v/>
       </c>
     </row>
@@ -1478,23 +1560,23 @@
         <v/>
       </c>
       <c r="G20" s="17" t="str">
-        <f>IF(_tag_day_hour1!E17="","",_tag_day_hour1!E17)</f>
+        <f>IF(_tag_day_hour1!G17="","",_tag_day_hour1!G17)</f>
         <v/>
       </c>
       <c r="H20" s="16" t="str">
-        <f>IF(_tag_day_hour1!F17="","",_tag_day_hour1!F17)</f>
-        <v/>
-      </c>
-      <c r="I20" s="17" t="str">
-        <f>IF(_tag_day_hour1!G17="","",_tag_day_hour1!G17)</f>
+        <f>IF(_tag_day_hour1!H17="","",_tag_day_hour1!H17)</f>
+        <v/>
+      </c>
+      <c r="I20" s="24" t="str">
+        <f>IF(_tag_day_hour1!I17="","",_tag_day_hour1!I17/1000)</f>
         <v/>
       </c>
       <c r="J20" s="24" t="str">
-        <f>IF(_tag_day_hour1!H17="","",_tag_day_hour1!H17)</f>
+        <f>IF(_tag_day_hour1!J17="","",_tag_day_hour1!J17)</f>
         <v/>
       </c>
       <c r="K20" s="18" t="str">
-        <f>IF(_tag_day_hour1!I17="","",_tag_day_hour1!I17)</f>
+        <f>IF(_tag_day_hour1!K17="","",_tag_day_hour1!K17)</f>
         <v/>
       </c>
     </row>
@@ -1519,23 +1601,23 @@
         <v/>
       </c>
       <c r="G21" s="17" t="str">
-        <f>IF(_tag_day_hour1!E18="","",_tag_day_hour1!E18)</f>
+        <f>IF(_tag_day_hour1!G18="","",_tag_day_hour1!G18)</f>
         <v/>
       </c>
       <c r="H21" s="16" t="str">
-        <f>IF(_tag_day_hour1!F18="","",_tag_day_hour1!F18)</f>
-        <v/>
-      </c>
-      <c r="I21" s="17" t="str">
-        <f>IF(_tag_day_hour1!G18="","",_tag_day_hour1!G18)</f>
+        <f>IF(_tag_day_hour1!H18="","",_tag_day_hour1!H18)</f>
+        <v/>
+      </c>
+      <c r="I21" s="24" t="str">
+        <f>IF(_tag_day_hour1!I18="","",_tag_day_hour1!I18/1000)</f>
         <v/>
       </c>
       <c r="J21" s="24" t="str">
-        <f>IF(_tag_day_hour1!H18="","",_tag_day_hour1!H18)</f>
+        <f>IF(_tag_day_hour1!J18="","",_tag_day_hour1!J18)</f>
         <v/>
       </c>
       <c r="K21" s="18" t="str">
-        <f>IF(_tag_day_hour1!I18="","",_tag_day_hour1!I18)</f>
+        <f>IF(_tag_day_hour1!K18="","",_tag_day_hour1!K18)</f>
         <v/>
       </c>
     </row>
@@ -1560,20 +1642,20 @@
         <v/>
       </c>
       <c r="G22" s="17" t="str">
-        <f>IF(_tag_day_hour1!E19="","",_tag_day_hour1!E19)</f>
+        <f>IF(_tag_day_hour1!G19="","",_tag_day_hour1!G19)</f>
         <v/>
       </c>
       <c r="H22" s="16"/>
-      <c r="I22" s="17" t="str">
-        <f>IF(_tag_day_hour1!G19="","",_tag_day_hour1!G19)</f>
+      <c r="I22" s="24" t="str">
+        <f>IF(_tag_day_hour1!I19="","",_tag_day_hour1!I19/1000)</f>
         <v/>
       </c>
       <c r="J22" s="24" t="str">
-        <f>IF(_tag_day_hour1!H19="","",_tag_day_hour1!H19)</f>
+        <f>IF(_tag_day_hour1!J19="","",_tag_day_hour1!J19)</f>
         <v/>
       </c>
       <c r="K22" s="18" t="str">
-        <f>IF(_tag_day_hour1!I19="","",_tag_day_hour1!I19)</f>
+        <f>IF(_tag_day_hour1!K19="","",_tag_day_hour1!K19)</f>
         <v/>
       </c>
     </row>
@@ -1598,23 +1680,23 @@
         <v/>
       </c>
       <c r="G23" s="17" t="str">
-        <f>IF(_tag_day_hour1!E20="","",_tag_day_hour1!E20)</f>
+        <f>IF(_tag_day_hour1!G20="","",_tag_day_hour1!G20)</f>
         <v/>
       </c>
       <c r="H23" s="16" t="str">
-        <f>IF(_tag_day_hour1!F20="","",_tag_day_hour1!F20)</f>
-        <v/>
-      </c>
-      <c r="I23" s="17" t="str">
-        <f>IF(_tag_day_hour1!G20="","",_tag_day_hour1!G20)</f>
+        <f>IF(_tag_day_hour1!H20="","",_tag_day_hour1!H20)</f>
+        <v/>
+      </c>
+      <c r="I23" s="24" t="str">
+        <f>IF(_tag_day_hour1!I20="","",_tag_day_hour1!I20/1000)</f>
         <v/>
       </c>
       <c r="J23" s="24" t="str">
-        <f>IF(_tag_day_hour1!H20="","",_tag_day_hour1!H20)</f>
+        <f>IF(_tag_day_hour1!J20="","",_tag_day_hour1!J20)</f>
         <v/>
       </c>
       <c r="K23" s="18" t="str">
-        <f>IF(_tag_day_hour1!I20="","",_tag_day_hour1!I20)</f>
+        <f>IF(_tag_day_hour1!K20="","",_tag_day_hour1!K20)</f>
         <v/>
       </c>
     </row>
@@ -1639,23 +1721,23 @@
         <v/>
       </c>
       <c r="G24" s="17" t="str">
-        <f>IF(_tag_day_hour1!E21="","",_tag_day_hour1!E21)</f>
+        <f>IF(_tag_day_hour1!G21="","",_tag_day_hour1!G21)</f>
         <v/>
       </c>
       <c r="H24" s="16" t="str">
-        <f>IF(_tag_day_hour1!F21="","",_tag_day_hour1!F21)</f>
-        <v/>
-      </c>
-      <c r="I24" s="17" t="str">
-        <f>IF(_tag_day_hour1!G21="","",_tag_day_hour1!G21)</f>
+        <f>IF(_tag_day_hour1!H21="","",_tag_day_hour1!H21)</f>
+        <v/>
+      </c>
+      <c r="I24" s="24" t="str">
+        <f>IF(_tag_day_hour1!I21="","",_tag_day_hour1!I21/1000)</f>
         <v/>
       </c>
       <c r="J24" s="24" t="str">
-        <f>IF(_tag_day_hour1!H21="","",_tag_day_hour1!H21)</f>
+        <f>IF(_tag_day_hour1!J21="","",_tag_day_hour1!J21)</f>
         <v/>
       </c>
       <c r="K24" s="18" t="str">
-        <f>IF(_tag_day_hour1!I21="","",_tag_day_hour1!I21)</f>
+        <f>IF(_tag_day_hour1!K21="","",_tag_day_hour1!K21)</f>
         <v/>
       </c>
     </row>
@@ -1680,23 +1762,23 @@
         <v/>
       </c>
       <c r="G25" s="17" t="str">
-        <f>IF(_tag_day_hour1!E22="","",_tag_day_hour1!E22)</f>
+        <f>IF(_tag_day_hour1!G22="","",_tag_day_hour1!G22)</f>
         <v/>
       </c>
       <c r="H25" s="16" t="str">
-        <f>IF(_tag_day_hour1!F22="","",_tag_day_hour1!F22)</f>
-        <v/>
-      </c>
-      <c r="I25" s="17" t="str">
-        <f>IF(_tag_day_hour1!G22="","",_tag_day_hour1!G22)</f>
+        <f>IF(_tag_day_hour1!H22="","",_tag_day_hour1!H22)</f>
+        <v/>
+      </c>
+      <c r="I25" s="24" t="str">
+        <f>IF(_tag_day_hour1!I22="","",_tag_day_hour1!I22/1000)</f>
         <v/>
       </c>
       <c r="J25" s="24" t="str">
-        <f>IF(_tag_day_hour1!H22="","",_tag_day_hour1!H22)</f>
+        <f>IF(_tag_day_hour1!J22="","",_tag_day_hour1!J22)</f>
         <v/>
       </c>
       <c r="K25" s="18" t="str">
-        <f>IF(_tag_day_hour1!I22="","",_tag_day_hour1!I22)</f>
+        <f>IF(_tag_day_hour1!K22="","",_tag_day_hour1!K22)</f>
         <v/>
       </c>
     </row>
@@ -1721,23 +1803,23 @@
         <v/>
       </c>
       <c r="G26" s="17" t="str">
-        <f>IF(_tag_day_hour1!E23="","",_tag_day_hour1!E23)</f>
+        <f>IF(_tag_day_hour1!G23="","",_tag_day_hour1!G23)</f>
         <v/>
       </c>
       <c r="H26" s="16" t="str">
-        <f>IF(_tag_day_hour1!F23="","",_tag_day_hour1!F23)</f>
-        <v/>
-      </c>
-      <c r="I26" s="17" t="str">
-        <f>IF(_tag_day_hour1!G23="","",_tag_day_hour1!G23)</f>
+        <f>IF(_tag_day_hour1!H23="","",_tag_day_hour1!H23)</f>
+        <v/>
+      </c>
+      <c r="I26" s="24" t="str">
+        <f>IF(_tag_day_hour1!I23="","",_tag_day_hour1!I23/1000)</f>
         <v/>
       </c>
       <c r="J26" s="24" t="str">
-        <f>IF(_tag_day_hour1!H23="","",_tag_day_hour1!H23)</f>
+        <f>IF(_tag_day_hour1!J23="","",_tag_day_hour1!J23)</f>
         <v/>
       </c>
       <c r="K26" s="18" t="str">
-        <f>IF(_tag_day_hour1!I23="","",_tag_day_hour1!I23)</f>
+        <f>IF(_tag_day_hour1!K23="","",_tag_day_hour1!K23)</f>
         <v/>
       </c>
     </row>
@@ -1762,23 +1844,23 @@
         <v/>
       </c>
       <c r="G27" s="17" t="str">
-        <f>IF(_tag_day_hour1!E24="","",_tag_day_hour1!E24)</f>
+        <f>IF(_tag_day_hour1!G24="","",_tag_day_hour1!G24)</f>
         <v/>
       </c>
       <c r="H27" s="16" t="str">
-        <f>IF(_tag_day_hour1!F24="","",_tag_day_hour1!F24)</f>
-        <v/>
-      </c>
-      <c r="I27" s="17" t="str">
-        <f>IF(_tag_day_hour1!G24="","",_tag_day_hour1!G24)</f>
+        <f>IF(_tag_day_hour1!H24="","",_tag_day_hour1!H24)</f>
+        <v/>
+      </c>
+      <c r="I27" s="24" t="str">
+        <f>IF(_tag_day_hour1!I24="","",_tag_day_hour1!I24/1000)</f>
         <v/>
       </c>
       <c r="J27" s="24" t="str">
-        <f>IF(_tag_day_hour1!H24="","",_tag_day_hour1!H24)</f>
+        <f>IF(_tag_day_hour1!J24="","",_tag_day_hour1!J24)</f>
         <v/>
       </c>
       <c r="K27" s="18" t="str">
-        <f>IF(_tag_day_hour1!I24="","",_tag_day_hour1!I24)</f>
+        <f>IF(_tag_day_hour1!K24="","",_tag_day_hour1!K24)</f>
         <v/>
       </c>
     </row>
@@ -1803,29 +1885,29 @@
         <v/>
       </c>
       <c r="G28" s="17" t="str">
-        <f>IF(_tag_day_hour1!E25="","",_tag_day_hour1!E25)</f>
+        <f>IF(_tag_day_hour1!G25="","",_tag_day_hour1!G25)</f>
         <v/>
       </c>
       <c r="H28" s="16" t="str">
-        <f>IF(_tag_day_hour1!F25="","",_tag_day_hour1!F25)</f>
-        <v/>
-      </c>
-      <c r="I28" s="17" t="str">
-        <f>IF(_tag_day_hour1!G25="","",_tag_day_hour1!G25)</f>
+        <f>IF(_tag_day_hour1!H25="","",_tag_day_hour1!H25)</f>
+        <v/>
+      </c>
+      <c r="I28" s="24" t="str">
+        <f>IF(_tag_day_hour1!I25="","",_tag_day_hour1!I25/1000)</f>
         <v/>
       </c>
       <c r="J28" s="24" t="str">
-        <f>IF(_tag_day_hour1!H25="","",_tag_day_hour1!H25)</f>
+        <f>IF(_tag_day_hour1!J25="","",_tag_day_hour1!J25)</f>
         <v/>
       </c>
       <c r="K28" s="18" t="str">
-        <f>IF(_tag_day_hour1!I25="","",_tag_day_hour1!I25)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <f>IF(_tag_day_hour1!K25="","",_tag_day_hour1!K25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C29" s="20" t="str">
         <f t="shared" ref="C29:K29" si="0">IFERROR(AVERAGE(C5:C28),"")</f>
@@ -1851,7 +1933,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I29" s="21" t="str">
+      <c r="I29" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1864,6 +1946,7 @@
         <v/>
       </c>
     </row>
+    <row r="30" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:K2"/>
@@ -1872,47 +1955,221 @@
   <phoneticPr fontId="7" type="noConversion"/>
   <printOptions gridLines="1" gridLinesSet="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="75.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>27</v>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D2" t="str">
+        <f>IF(AND(E2="",F2=""),"",MAX(E2,F2))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D29" si="0">IF(AND(E3="",F3=""),"",MAX(E3,F3))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1950,7 +2207,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B1">
         <v>8</v>
